--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,14 +1145,227 @@
           <t>회피(Avoidance)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D31" t="n">
+        <v>20221219</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>18시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>採用</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>남용</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>채용(use)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>對話</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>부활</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>대화(dialogue)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>문대</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>지지(support)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>맹서</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>맹세(Oath)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>直徑</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>첩경</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>직경(diameter)</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>補板</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>보판(Supplement)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>政派</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>정파</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>構造</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>구조(structure)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>根絶</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>근절(eradication)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,14 +1358,182 @@
           <t>근절(eradication)</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D40" t="n">
+        <v>20221221</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>準據</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>준거(Accurate)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>묘사(description)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>殞命</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>운명(die)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>설치(set up)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>息肩</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>식견(Shoulders)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,14 +1526,974 @@
           <t>식견(Shoulders)</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>규칙</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>설치(set up)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>묘사(description)</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>準據</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>준거(Accurate)</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>관련(Associate)</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>設置</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>설치(set up)</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>息肩</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>견해</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>식견(Shoulders)</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>鷹視</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>응시(Hawking)</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>관련(Associate)</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>意圖</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>의도(intention)</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>10시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rbdbf</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>10시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>關聯</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>연관</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>관련(Associate)</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>校訂</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>교정(revision)</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>聯關</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>연관(Associate)</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>葛藤</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>갈등(conflict)</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>10시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>遺棄</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>유기(Abandon)</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>演說</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>연설(speech)</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>妄想</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>망신</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>망상(Delusion)</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>恣意</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>자의(Unreasonable)</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>妄靈</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>망령(Deliberate)</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>意志</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>의사</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>의지(will)</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>10시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>意向</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>의회</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>의향(intention)</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>10시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>描寫</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>묘사(description)</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>희망(hope)</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>10시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>抛棄</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>포기(abandon)</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>10시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>展望</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>전망(Outlook)</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>10시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>참고</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>제고(improve)</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>10시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>說得</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>설득(Speak)</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>10시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>設令</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>설득</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>설령(Order)</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>10시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>10시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>20230114</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>10시 08분</t>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2486,14 +2486,2574 @@
           <t>서사(Narrative)</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>20230114</t>
-        </is>
+      <c r="D92" t="n">
+        <v>20230114</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>陰地</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>음지</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>揭揚</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>게양(Show up)</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>毒舌</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>독설(vicious)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>閉蟄</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>폐칩(Close)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>未來</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>미래(future)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>威力</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>위력(power)</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>詭辯</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>궤변(sophistry)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>過去</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>과거(past)</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>陶冶</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>도야(mold)</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>姉妹</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>자매(Sisters)</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>吾等</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>오등(Wait)</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>통치(rule)</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>抗辯</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>항변(Defense)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>시장(market)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>記念</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>기회</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>기념(anniversary)</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>場所</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>장소(place)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>書記</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>서기(secretary)</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>所願</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>소원(Wish)</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>自由</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>자가</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>자유(free)</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>帶同</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>대동</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>姉妹</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>자매(Sisters)</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>沒落</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>몰락(decline)</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>연명</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>운명(Fate)</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>부활(Revival)</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>威力</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>위력(power)</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>승객(passenger)</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>통념</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>통치(rule)</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>展開</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>개패</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>전개(Development)</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>肺炎</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>폐렴(pneumonia)</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>姉妹</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>자매(Sisters)</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>부활(Revival)</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>연명</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>운명(Fate)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>帶同</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>대동</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>吾等</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>오등(Wait)</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>肺炎</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>폐렴(pneumonia)</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>曙光</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>서광(Dawn)</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>腰帶</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>요대(belt)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>閉蟄</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>폐칩(Close)</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>肺病</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>폐병(pulmonary disease)</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>揭揚</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>게양(Show up)</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>威力</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>위력(power)</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>沒落</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>몰락(decline)</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>개신</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>設定</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>설정(Configuration)</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>삭막</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>진서</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>부활(Revival)</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>20230117</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E212"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5046,14 +5046,1813 @@
           <t>기록(Record)</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>20230117</t>
-        </is>
+      <c r="D212" t="n">
+        <v>20230117</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>肺病</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>폐병(pulmonary disease)</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>揭示</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>게시(reveal)</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>沒落</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>몰락(decline)</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>05시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>忌憚</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>개전</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>기탄(fear)</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>05시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>05시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>05시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>05시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>閉蟄</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>폐칩(Close)</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>威力</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>위력(power)</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>沒頭</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>몰두(No)</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>識別</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>식별(Identify)</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>개전</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>부활(Revival)</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>假想</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>가상(imaginary)</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>승객(passenger)</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>設定</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>투정</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>설정(Configuration)</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>투신</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>05시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>運命</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>변명</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>운명(Fate)</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>05시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>05시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>비운</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>頭巾</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>두건(scarf)</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>05시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>05시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>05시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>05시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>05시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>絶望</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>절망(disappointment)</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>05시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>變潮</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>변조(Tide)</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>05시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>05시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>設定</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>설정(Configuration)</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>05시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>改良</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>개량(Improvement)</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>呼吸</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>호흡(breathe)</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>精神</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>정신(Spirit)</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>05시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>05시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>진서</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>05시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>躊躇</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>주저(hesitation)</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>乘客</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>승객(passenger)</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>投射</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>투정</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>투사(projection)</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>演說</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>연설(speech)</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>05시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>부운</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>猜忌</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>정기</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>시기(Jealous)</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>廣場</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>광장(square)</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>05시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>禁忌</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>시기</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>금기(Taboo)</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>敍事</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>서사(Narrative)</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>05시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>演說</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>연설(speech)</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>05시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>05시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>復運</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>복운(Recurrence)</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>05시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>振舒</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>진서(Zhen Shu)</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>06시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>記錄</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>개량</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>기록(Record)</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>06시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>滯症</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>변조</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>체증(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>06시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>시장(market)</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>제고(improve)</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>陽地</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>음지</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>양지(Yang)</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>20230118</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6845,14 +6845,2988 @@
           <t>양지(Yang)</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>20230118</t>
-        </is>
+      <c r="D295" t="n">
+        <v>20230118</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
           <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>嚆矢</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>효시(First)</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>최촉</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>適合</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>적합(Suitable for)</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>辭任</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>사임(Resign)</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>起床</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>기상(get up)</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out):후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>확실(really)</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>勃發</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>발발(thrive)</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>기호(mark):부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>알력(Friction):의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>退任</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>퇴임(Retirement)</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>鳥瞰</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>조감</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>간호</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>訥辯</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>언변</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>눌변(Argue):더듬거리는 말솜씨</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>낙점(Falling point)</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>소지(Possession)</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>凜凜</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>늠름(凜凜)</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>소진(Disappear)</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>입원</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>곤혹(Puzzled)</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>배치(Rejuvenate)</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>一毫</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>일모</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>일호:극히 작은 정도</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>物望</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>물망(Look at)</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>設立</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>설립(set up)</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>保重</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>보중</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>樹立</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>수립(Establish)</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>匡正</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>광정(Righteousness):잘못된 것이나 부정따위를 바로잡음</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>소지(Possession)</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>11시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>게재(Reveal)</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>訥辯</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>늘뱐</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>눌변(Argue):더듬거리는 말솜씨</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>충실</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>유실(Lose):떠내려가서 없어지거나 잃음</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>辭任</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>사임(Resign)</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>익명(Anonymous)</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>반영(reflect)</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out):후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>壓縮</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>압축(compression)</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>匡正</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>광정(Righteousness):잘못된 것이나 부정따위를 바로잡음</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>隨想</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>수상(Imagine):그때 그때 떠오르는 느낌이나 생각</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>반영(reflect)</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>경탄(Daunting):우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>慨歎</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>경탄</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>개탄(Deeply):분하고 안타깝게 여기어 탄식하다</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>異動</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>이동(Transfer)</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>生成</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>생업</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>생성(generate)</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>혼곤(Faint)</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>退任</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>사임</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>퇴임(Retirement)</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>적적(Silence)</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>懷疑</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>회의(Suspect)</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>유실(Lose):떠내려가서 없어지거나 잃음</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>11시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>확정(Positive):잘못을 바로잡음</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>燒失</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>소실(Burn)</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>기호(mark):부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out):후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>芒種</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>망종(Pimple)</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>낙점(Falling point)</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>11시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>곤욕(Disgrace)</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr"/>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>11시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr"/>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>익명(Anonymous)</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>記號</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>가호</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>기호(mark):부호, 문자, 표지</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>판매(Sell)</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>능가(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>壓縮</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>압축(compression)</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>훼손(damage):체면이나 명예를 손상함 또는 헐거나 깨뜨려 못쓰게 만듦</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>嗜好</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>기호(preference):즐기고 좋아함</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>停滯</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>정체(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>消滅</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>소실</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>소멸(wipe out)</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>保重</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>과중</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>보중</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>勇退</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>용퇴(bowing out):후진에게 길을 열어 주기 위해 스스로 관직 따위에서 물러남</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>獲得</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>획득(get)</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>능가(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>受賞</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>수상(Awarded):상을 받음</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>昏困</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr"/>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>혼곤(Faint)</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr"/>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>남상(Settle):사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>혼란(confusion)</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>중상(Slander):근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>추천(recommend)</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>11시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>凌駕</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr"/>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>능가(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>11시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr"/>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>판매(Sell)</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>11시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>凜凜</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>늠름(凜凜)</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>12시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>壓勝</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>압승(Overwhelm)</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>12시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>誹謗</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>비방(defamation):남을 비웃고 헐뜯어서 말함</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>寂寂</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>적적(Silence)</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>敬歎</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>개탄</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>경탄(Daunting):우러르며 감탄하다</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr"/>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>소지(Possession)</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>확실(really)</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>起床</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>기반</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>기상(get up)</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>芒種</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>망중</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>망종(Pimple)</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>배치(Rejuvenate)</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>낙점(Falling point)</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>獲得</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>획득(get)</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>壓迫</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>압박(oppression)</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>중상(Slander):근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>達辯</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>달변(Argue):능숙하여 막힘이 없는 말솜씨</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>移動</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>이동(move)</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>適合</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>남합</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>적합(Suitable for)</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr"/>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>鳥瞰</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>조감</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>慨歎</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>기탄</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>개탄(Deeply):분하고 안타깝게 여기어 탄식하다</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>揭載</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>게재(Reveal)</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>곤욕(Disgrace)</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr"/>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>곤혹(Puzzled)</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>소실(disappear)</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>推薦</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr"/>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>추천(recommend)</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>乾坤</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr"/>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>건곤(Unbroken):하늘과 땅</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>嗜好</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>기호(preference):즐기고 좋아함</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr"/>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>樹立</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>수립(Establish)</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>隨想</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>수상(Imagine):그때 그때 떠오르는 느낌이나 생각</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>設立</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>설립(set up)</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr"/>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>軋轢</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr"/>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>알력(Friction):의견이 달라 충돌함</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>20230120</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_복습_한자어2글자_번역.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E433"/>
+  <dimension ref="A1:E472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9819,14 +9819,845 @@
           <t>알력(Friction):의견이 달라 충돌함</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>20230120</t>
-        </is>
+      <c r="D433" t="n">
+        <v>20230120</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
           <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>凜凜</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>늠름(凜凜)</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>05시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>하지(Summer solstice)</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>05시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>혼란(confusion)</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>05시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>05시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>困辱</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>곤욕(Disgrace)</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>05시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>惟獨</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr"/>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>유독(Only)</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>05시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>立夏</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>입신</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>입하</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>05시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>看做</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>간주(Look at)</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>05시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>乾坤</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>건곤(Unbroken):하늘과 땅</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>05시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>確實</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>확실(really)</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>05시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>충실</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>유실(Lose):떠내려가서 없어지거나 잃음</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>05시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>憤怒</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>분노(anger):분해 성내다</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>05시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>匿名</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>익명(Anonymous)</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>05시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>濫觴</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr"/>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>남상(Settle):사물의 처음이나 기원</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>05시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>混亂</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>혼란(confusion)</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>05시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>停滯</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>정체(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>05시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>落點</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr"/>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>낙점(Falling point)</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>起床</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>기상(get up)</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>05시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>販賣</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>판매(Sell)</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>背馳</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>배치(Rejuvenate)</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>05시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>規律</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>규율(law)</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>05시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>省察</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>성찰(Provincial inspection)</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>消去</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>소거(erase)</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>嗜好</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>기호(preference):즐기고 좋아함</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>05시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>停滯</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>정체(Stagnation)</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>所持</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>소지(Possession)</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>05시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>夏至</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>하지(Summer solstice)</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>05시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>仕退</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>사퇴(Retire)</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>慇懃</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>은근(Courtesy)</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>中傷</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>중상(Slander):근거 없는 말로 남을 헐뜯어 명예나 지위를 손상시킴</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>獲得</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>획득(get)</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>05시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>辭任</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>사임(Resign)</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>05시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>秋毫</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>추호(Beyond):매우 적거나 조금인 것</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>消盡</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>소진(Disappear)</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>慨歎</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>개탄(Deeply):분하고 안타깝게 여기어 탄식하다</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>物望</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>건망</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>물망(Look at)</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>廓正</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>확정(Positive):잘못을 바로잡음</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>20230123</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>05시 39분</t>
         </is>
       </c>
     </row>
